--- a/biology/Zoologie/Écaille_fermière/Écaille_fermière.xlsx
+++ b/biology/Zoologie/Écaille_fermière/Écaille_fermière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
+          <t>Écaille_fermière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctia villica
 L'Écaille fermière ou Écaille villageoise (Arctia villica) est une espèce paléarctique de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
+          <t>Écaille_fermière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago a une envergure de 60 à 68 mm.
 			Face dorsale – coll. MHNT.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
+          <t>Écaille_fermière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arctia villica est répandue de l'Europe et l'Afrique du Nord jusqu'à l'Asie centrale.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
+          <t>Écaille_fermière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est univoltine : elle n'effectue qu'un cycle reproductif par an.
 L'imago peut être vu de mars à juillet selon le lieu d’observation.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
+          <t>Écaille_fermière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,18 +627,89 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Arctia villica a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena villica[1],[2].
-Synonymie
-Phalaena villica Linnaeus, 1758 — Protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Arctia villica a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Phalaena villica,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écaille_fermière</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89caille_fermi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena villica Linnaeus, 1758 — Protonyme
 Epicallia villica (Linnaeus, 1758)
 Arctia villica meridionalis Heinrich, 1923
 Chelonia villica corsica Oberthür, 1911
 Chelonia villica nicaeensis Oberthür, 1911
-Bombyx vidua Poda, 1761
-Sous-espèces
-On recense plusieurs sous-espèces[2] :
+Bombyx vidua Poda, 1761</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écaille_fermière</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89caille_fermi%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On recense plusieurs sous-espèces :
 Arctia villica villica (Linnaeus, 1758)
 Arctia villica angelica (Boisduval, 1829)
 Arctia villica fulminans Staudinger, 1871
@@ -631,31 +720,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89caille_fermi%C3%A8re</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écaille_fermière</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89caille_fermi%C3%A8re</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Écaille fermière est figurée sur un timbre-poste allemand de 1992 de 100+50 pfennigs.
 </t>
